--- a/Code/Results/Cases/Case_1_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_206/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.26902541992078</v>
+        <v>0.1425304360311941</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08576625989938691</v>
+        <v>0.1740869811143284</v>
       </c>
       <c r="E2">
-        <v>0.1359697454569897</v>
+        <v>0.1584551540436152</v>
       </c>
       <c r="F2">
-        <v>1.978942931388744</v>
+        <v>1.586058537684849</v>
       </c>
       <c r="G2">
-        <v>0.0007498061404022563</v>
+        <v>0.002415559989362569</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2273247483513217</v>
+        <v>0.1913305446093858</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.288064236591595</v>
+        <v>1.995241137946778</v>
       </c>
       <c r="O2">
-        <v>5.520773989079601</v>
+        <v>3.975293305671926</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.235677311870532</v>
+        <v>0.1329091933101978</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08065975048865681</v>
+        <v>0.1738283514950183</v>
       </c>
       <c r="E3">
-        <v>0.1219785436180274</v>
+        <v>0.1560976871575157</v>
       </c>
       <c r="F3">
-        <v>1.741874578264813</v>
+        <v>1.537274724656484</v>
       </c>
       <c r="G3">
-        <v>0.0007568237317984689</v>
+        <v>0.002420193372685223</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2004213100205945</v>
+        <v>0.1859881629284246</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.836929003758627</v>
+        <v>1.846526605564804</v>
       </c>
       <c r="O3">
-        <v>4.838802292291973</v>
+        <v>3.829925653828582</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2152931864902854</v>
+        <v>0.1270661492628875</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07764057891411369</v>
+        <v>0.1737352727050379</v>
       </c>
       <c r="E4">
-        <v>0.1136147045423641</v>
+        <v>0.1547365595057464</v>
       </c>
       <c r="F4">
-        <v>1.599611838403703</v>
+        <v>1.508292599236057</v>
       </c>
       <c r="G4">
-        <v>0.000761255900477545</v>
+        <v>0.002423190390540851</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1842960733825265</v>
+        <v>0.1828259976756428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.56009691549059</v>
+        <v>1.755520437593759</v>
       </c>
       <c r="O4">
-        <v>4.429283052049982</v>
+        <v>3.743161388050623</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070077212374599</v>
+        <v>0.1247015078381395</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07643752594195519</v>
+        <v>0.1737138821688973</v>
       </c>
       <c r="E5">
-        <v>0.1102579329075439</v>
+        <v>0.1542035670625133</v>
       </c>
       <c r="F5">
-        <v>1.542376418413639</v>
+        <v>1.496725533069323</v>
       </c>
       <c r="G5">
-        <v>0.0007630943179000801</v>
+        <v>0.002424450076845931</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1778130880939059</v>
+        <v>0.1815669644110329</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.447332324296866</v>
+        <v>1.718516884911963</v>
       </c>
       <c r="O5">
-        <v>4.264452688295307</v>
+        <v>3.708428181857073</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056331561246481</v>
+        <v>0.1243098614095572</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07623935360226142</v>
+        <v>0.1737113296674551</v>
       </c>
       <c r="E6">
-        <v>0.1097035056413063</v>
+        <v>0.1541163722461825</v>
       </c>
       <c r="F6">
-        <v>1.532914542666902</v>
+        <v>1.494819505439395</v>
       </c>
       <c r="G6">
-        <v>0.0007634015699947875</v>
+        <v>0.002424661568431892</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1767416198177401</v>
+        <v>0.1813596857490793</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.428610827881812</v>
+        <v>1.712377599108464</v>
       </c>
       <c r="O6">
-        <v>4.237199325944744</v>
+        <v>3.702698365185597</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2151813622178196</v>
+        <v>0.1270341919673399</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07762424611756558</v>
+        <v>0.1737349172359117</v>
       </c>
       <c r="E7">
-        <v>0.1135692321060375</v>
+        <v>0.1547292836604051</v>
       </c>
       <c r="F7">
-        <v>1.598837069909848</v>
+        <v>1.508135617428664</v>
       </c>
       <c r="G7">
-        <v>0.0007612805616600734</v>
+        <v>0.002423207223543514</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1842082981816162</v>
+        <v>0.1828088983185268</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.55857593667119</v>
+        <v>1.755021054648495</v>
       </c>
       <c r="O7">
-        <v>4.427052118205268</v>
+        <v>3.742690441195975</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2575068091881008</v>
+        <v>0.1391997998654944</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08398018891368508</v>
+        <v>0.1739841729763967</v>
       </c>
       <c r="E8">
-        <v>0.1310950688487189</v>
+        <v>0.1576243489920373</v>
       </c>
       <c r="F8">
-        <v>1.896459714006767</v>
+        <v>1.569035736272298</v>
       </c>
       <c r="G8">
-        <v>0.000752200994248187</v>
+        <v>0.002417126089359947</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2179599782117378</v>
+        <v>0.1894639112100833</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.132480705843363</v>
+        <v>1.943904251618477</v>
       </c>
       <c r="O8">
-        <v>5.28355129880822</v>
+        <v>3.92465161631327</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3413255086069995</v>
+        <v>0.1635584291339143</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09746310262993063</v>
+        <v>0.1749940350993739</v>
       </c>
       <c r="E9">
-        <v>0.1675353365914489</v>
+        <v>0.1639891454149733</v>
       </c>
       <c r="F9">
-        <v>2.510836012672996</v>
+        <v>1.696215314610981</v>
       </c>
       <c r="G9">
-        <v>0.0007353123837499361</v>
+        <v>0.002406401938415241</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2878080285792066</v>
+        <v>0.2034575054670285</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.25911396555432</v>
+        <v>2.316504389646809</v>
       </c>
       <c r="O9">
-        <v>7.049484321021339</v>
+        <v>4.301396925444635</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.403543021541779</v>
+        <v>0.1817500012197257</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1081394645469018</v>
+        <v>0.1760534290396052</v>
       </c>
       <c r="E10">
-        <v>0.1959945670818755</v>
+        <v>0.169088474725001</v>
       </c>
       <c r="F10">
-        <v>2.988080076194848</v>
+        <v>1.794459758914059</v>
       </c>
       <c r="G10">
-        <v>0.0007233668241470942</v>
+        <v>0.002399246738317698</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3421956624826947</v>
+        <v>0.2143235631693869</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>6.087573303855777</v>
+        <v>2.591327722520418</v>
       </c>
       <c r="O10">
-        <v>8.420189421727173</v>
+        <v>4.590573542432821</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4320172635533197</v>
+        <v>0.1900877858899008</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1132014926894769</v>
+        <v>0.1766042903173286</v>
       </c>
       <c r="E11">
-        <v>0.2094156318129663</v>
+        <v>0.1715010782485393</v>
       </c>
       <c r="F11">
-        <v>3.212631996128295</v>
+        <v>1.840215008519493</v>
       </c>
       <c r="G11">
-        <v>0.0007180085467732798</v>
+        <v>0.002396147058881212</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3678194638589787</v>
+        <v>0.2193960977187146</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.464636319050896</v>
+        <v>2.716530669508643</v>
       </c>
       <c r="O11">
-        <v>9.064965924582339</v>
+        <v>4.724870106639514</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4428269586280464</v>
+        <v>0.1932538308938092</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1151514393177919</v>
+        <v>0.1768227941903859</v>
       </c>
       <c r="E12">
-        <v>0.2145764037657472</v>
+        <v>0.1724280870050521</v>
       </c>
       <c r="F12">
-        <v>3.298910046315086</v>
+        <v>1.857695457956879</v>
       </c>
       <c r="G12">
-        <v>0.0007159881034907167</v>
+        <v>0.00239499548138893</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3776699852107726</v>
+        <v>0.221335716487971</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.607448666631683</v>
+        <v>2.763963193734583</v>
       </c>
       <c r="O12">
-        <v>9.312686875616009</v>
+        <v>4.776123705914472</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4404976502400615</v>
+        <v>0.1925715833279469</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1147299517844047</v>
+        <v>0.1767752950894987</v>
       </c>
       <c r="E13">
-        <v>0.2134612708957775</v>
+        <v>0.1722278419399359</v>
       </c>
       <c r="F13">
-        <v>3.280270141153892</v>
+        <v>1.853923867927108</v>
       </c>
       <c r="G13">
-        <v>0.0007164228981295651</v>
+        <v>0.002395242508514029</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3755415923832572</v>
+        <v>0.2209171483289651</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.576690288353973</v>
+        <v>2.753746911385861</v>
       </c>
       <c r="O13">
-        <v>9.259168750958963</v>
+        <v>4.765067556405256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4329060254518424</v>
+        <v>0.190348085298524</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1133612314575743</v>
+        <v>0.1766220683052069</v>
       </c>
       <c r="E14">
-        <v>0.2098385750749614</v>
+        <v>0.1715770748056329</v>
       </c>
       <c r="F14">
-        <v>3.219704114662619</v>
+        <v>1.841650044738657</v>
       </c>
       <c r="G14">
-        <v>0.0007178421650553856</v>
+        <v>0.00239605187356056</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3686267927804465</v>
+        <v>0.2195552945535866</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.476385042944173</v>
+        <v>2.720432585385993</v>
       </c>
       <c r="O14">
-        <v>9.085271643591739</v>
+        <v>4.729078768254283</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.428259543810384</v>
+        <v>0.1889872547792919</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1125272693567254</v>
+        <v>0.1765295021117765</v>
       </c>
       <c r="E15">
-        <v>0.207630118487522</v>
+        <v>0.1711802087939134</v>
       </c>
       <c r="F15">
-        <v>3.182773359589163</v>
+        <v>1.834152050347342</v>
       </c>
       <c r="G15">
-        <v>0.0007187125570341637</v>
+        <v>0.002396550521006046</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.364411117899536</v>
+        <v>0.2187235669912297</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.414948655392948</v>
+        <v>2.700029152110062</v>
       </c>
       <c r="O15">
-        <v>8.979234096696416</v>
+        <v>4.707086574762002</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4016858187137444</v>
+        <v>0.1812063398625838</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1078130738615499</v>
+        <v>0.1760188154244986</v>
       </c>
       <c r="E16">
-        <v>0.1951278692833469</v>
+        <v>0.1689326789279946</v>
       </c>
       <c r="F16">
-        <v>2.973569363332558</v>
+        <v>1.791491030024417</v>
       </c>
       <c r="G16">
-        <v>0.0007237183369606608</v>
+        <v>0.00239945242344497</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.340540534766447</v>
+        <v>0.2139946788174569</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6.06293512783958</v>
+        <v>2.583148644061055</v>
       </c>
       <c r="O16">
-        <v>8.378520743813112</v>
+        <v>4.581852524519547</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3854292867134461</v>
+        <v>0.1764487851811651</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1049760437550447</v>
+        <v>0.1757231760749818</v>
       </c>
       <c r="E17">
-        <v>0.1875866459848581</v>
+        <v>0.167577719709449</v>
       </c>
       <c r="F17">
-        <v>2.847254704356175</v>
+        <v>1.765592947740373</v>
       </c>
       <c r="G17">
-        <v>0.0007268071007934151</v>
+        <v>0.002401272324867566</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.326136500202054</v>
+        <v>0.2111269263642015</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.847034662043257</v>
+        <v>2.511489453097226</v>
       </c>
       <c r="O17">
-        <v>8.015780684864751</v>
+        <v>4.505731717013816</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3760949153854511</v>
+        <v>0.1737182494248515</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1033633474489832</v>
+        <v>0.1755596213569888</v>
       </c>
       <c r="E18">
-        <v>0.1832931440395029</v>
+        <v>0.1668071234688995</v>
       </c>
       <c r="F18">
-        <v>2.775291589492582</v>
+        <v>1.750797082196556</v>
       </c>
       <c r="G18">
-        <v>0.0007285909641855381</v>
+        <v>0.002402333704617743</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3179333893321399</v>
+        <v>0.2094896528478927</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.722872568807418</v>
+        <v>2.470290675909951</v>
       </c>
       <c r="O18">
-        <v>7.809107281374224</v>
+        <v>4.462207568522672</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3729371237455865</v>
+        <v>0.1727947553757332</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1028204932595784</v>
+        <v>0.1755053593357232</v>
       </c>
       <c r="E19">
-        <v>0.1818467053693666</v>
+        <v>0.166547712491564</v>
       </c>
       <c r="F19">
-        <v>2.751039638791383</v>
+        <v>1.745804605181775</v>
       </c>
       <c r="G19">
-        <v>0.0007291962666071513</v>
+        <v>0.00240269558458022</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3151694092982922</v>
+        <v>0.2089373882823509</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.680836575609476</v>
+        <v>2.456344689235948</v>
       </c>
       <c r="O19">
-        <v>7.739454382194197</v>
+        <v>4.447515346699447</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3871581531680448</v>
+        <v>0.1769546279153928</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1052760505133321</v>
+        <v>0.1757539758419355</v>
       </c>
       <c r="E20">
-        <v>0.188384797088851</v>
+        <v>0.167721052465474</v>
       </c>
       <c r="F20">
-        <v>2.860628542161237</v>
+        <v>1.768339483154278</v>
       </c>
       <c r="G20">
-        <v>0.000726477557967141</v>
+        <v>0.002401077080864969</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3276612379046355</v>
+        <v>0.2114309417489437</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.870015766701897</v>
+        <v>2.519115905986666</v>
       </c>
       <c r="O20">
-        <v>8.054188154448866</v>
+        <v>4.513808127811615</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.435135113195912</v>
+        <v>0.1910009463247917</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1137623300266455</v>
+        <v>0.1766668059812773</v>
       </c>
       <c r="E21">
-        <v>0.2109004301091844</v>
+        <v>0.1717678565883389</v>
       </c>
       <c r="F21">
-        <v>3.237458537288376</v>
+        <v>1.845250978317722</v>
       </c>
       <c r="G21">
-        <v>0.0007174250776486035</v>
+        <v>0.002395813541770542</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3706536622629955</v>
+        <v>0.2199547937791095</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.505846402053692</v>
+        <v>2.730217288371648</v>
       </c>
       <c r="O21">
-        <v>9.136248527455905</v>
+        <v>4.739638709769963</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4666501368064075</v>
+        <v>0.200231658042739</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1195033031277006</v>
+        <v>0.1773211216162025</v>
       </c>
       <c r="E22">
-        <v>0.226079004786115</v>
+        <v>0.1744908541518555</v>
       </c>
       <c r="F22">
-        <v>3.491093662348447</v>
+        <v>1.896414790630246</v>
       </c>
       <c r="G22">
-        <v>0.0007115577294594542</v>
+        <v>0.002392502880666877</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3996219918742412</v>
+        <v>0.225635036445496</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.92155462715408</v>
+        <v>2.868303394937072</v>
       </c>
       <c r="O22">
-        <v>9.864460275483566</v>
+        <v>4.889555756343043</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4498145419795492</v>
+        <v>0.1953005061487687</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.116420137804063</v>
+        <v>0.1769666215723475</v>
       </c>
       <c r="E23">
-        <v>0.2179317954575097</v>
+        <v>0.1730303690042234</v>
       </c>
       <c r="F23">
-        <v>3.354987425575217</v>
+        <v>1.869025219674057</v>
       </c>
       <c r="G23">
-        <v>0.0007146855933123156</v>
+        <v>0.002394258045721026</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3840739580264625</v>
+        <v>0.2225933271110279</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.699669140477681</v>
+        <v>2.794595190493112</v>
       </c>
       <c r="O23">
-        <v>9.473692027688571</v>
+        <v>4.809328534290898</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3863764963094809</v>
+        <v>0.1767259219249979</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1051403605639081</v>
+        <v>0.1757400312936568</v>
       </c>
       <c r="E24">
-        <v>0.1880238227616573</v>
+        <v>0.1676562256042899</v>
       </c>
       <c r="F24">
-        <v>2.854580196936581</v>
+        <v>1.76709748398801</v>
       </c>
       <c r="G24">
-        <v>0.0007266265188549838</v>
+        <v>0.002401165303691459</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3269716626694787</v>
+        <v>0.2112934607855692</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.859626127686454</v>
+        <v>2.515667989176677</v>
       </c>
       <c r="O24">
-        <v>8.03681834795151</v>
+        <v>4.510156039135268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3185489263899228</v>
+        <v>0.1569161479388868</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09369203427057471</v>
+        <v>0.1746650798694702</v>
       </c>
       <c r="E25">
-        <v>0.1574144629667877</v>
+        <v>0.1621932848350376</v>
       </c>
       <c r="F25">
-        <v>2.340651936903257</v>
+        <v>1.660971659900625</v>
       </c>
       <c r="G25">
-        <v>0.000739792431025621</v>
+        <v>0.002409175396314761</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2684393150567814</v>
+        <v>0.1995698711105831</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.954204993366773</v>
+        <v>2.215498394811902</v>
       </c>
       <c r="O25">
-        <v>6.560516147654027</v>
+        <v>4.197320322167002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_206/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1425304360311941</v>
+        <v>0.26902541992078</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1740869811143284</v>
+        <v>0.08576625989957165</v>
       </c>
       <c r="E2">
-        <v>0.1584551540436152</v>
+        <v>0.1359697454569542</v>
       </c>
       <c r="F2">
-        <v>1.586058537684849</v>
+        <v>1.978942931388744</v>
       </c>
       <c r="G2">
-        <v>0.002415559989362569</v>
+        <v>0.0007498061404486637</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1913305446093858</v>
+        <v>0.227324748351279</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.995241137946778</v>
+        <v>4.288064236591453</v>
       </c>
       <c r="O2">
-        <v>3.975293305671926</v>
+        <v>5.520773989079601</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329091933101978</v>
+        <v>0.2356773118709157</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1738283514950183</v>
+        <v>0.0806597504887705</v>
       </c>
       <c r="E3">
-        <v>0.1560976871575157</v>
+        <v>0.12197854361807</v>
       </c>
       <c r="F3">
-        <v>1.537274724656484</v>
+        <v>1.741874578264785</v>
       </c>
       <c r="G3">
-        <v>0.002420193372685223</v>
+        <v>0.0007568237317566255</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1859881629284246</v>
+        <v>0.2004213100206087</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.846526605564804</v>
+        <v>3.836929003758598</v>
       </c>
       <c r="O3">
-        <v>3.829925653828582</v>
+        <v>4.83880229229203</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1270661492628875</v>
+        <v>0.2152931864902854</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1737352727050379</v>
+        <v>0.07764057891413501</v>
       </c>
       <c r="E4">
-        <v>0.1547365595057464</v>
+        <v>0.1136147045423748</v>
       </c>
       <c r="F4">
-        <v>1.508292599236057</v>
+        <v>1.599611838403689</v>
       </c>
       <c r="G4">
-        <v>0.002423190390540851</v>
+        <v>0.0007612559004358798</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1828259976756428</v>
+        <v>0.1842960733824839</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.755520437593759</v>
+        <v>3.56009691549059</v>
       </c>
       <c r="O4">
-        <v>3.743161388050623</v>
+        <v>4.429283052050039</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247015078381395</v>
+        <v>0.2070077212374883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1737138821688973</v>
+        <v>0.07643752594196229</v>
       </c>
       <c r="E5">
-        <v>0.1542035670625133</v>
+        <v>0.1102579329075475</v>
       </c>
       <c r="F5">
-        <v>1.496725533069323</v>
+        <v>1.542376418413639</v>
       </c>
       <c r="G5">
-        <v>0.002424450076845931</v>
+        <v>0.0007630943178720262</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1815669644110329</v>
+        <v>0.1778130880939628</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.718516884911963</v>
+        <v>3.447332324296866</v>
       </c>
       <c r="O5">
-        <v>3.708428181857073</v>
+        <v>4.26445268829525</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243098614095572</v>
+        <v>0.2056331561246623</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1737113296674551</v>
+        <v>0.07623935360234668</v>
       </c>
       <c r="E6">
-        <v>0.1541163722461825</v>
+        <v>0.1097035056413063</v>
       </c>
       <c r="F6">
-        <v>1.494819505439395</v>
+        <v>1.532914542666916</v>
       </c>
       <c r="G6">
-        <v>0.002424661568431892</v>
+        <v>0.0007634015699945249</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1813596857490793</v>
+        <v>0.1767416198177898</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.712377599108464</v>
+        <v>3.428610827881698</v>
       </c>
       <c r="O6">
-        <v>3.702698365185597</v>
+        <v>4.237199325944687</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270341919673399</v>
+        <v>0.2151813622174217</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1737349172359117</v>
+        <v>0.0776242461174661</v>
       </c>
       <c r="E7">
-        <v>0.1547292836604051</v>
+        <v>0.1135692321060411</v>
       </c>
       <c r="F7">
-        <v>1.508135617428664</v>
+        <v>1.598837069909834</v>
       </c>
       <c r="G7">
-        <v>0.002423207223543514</v>
+        <v>0.0007612805617307934</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1828088983185268</v>
+        <v>0.1842082981815167</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.755021054648495</v>
+        <v>3.558575936671076</v>
       </c>
       <c r="O7">
-        <v>3.742690441195975</v>
+        <v>4.427052118205211</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391997998654944</v>
+        <v>0.2575068091882997</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1739841729763967</v>
+        <v>0.08398018891359271</v>
       </c>
       <c r="E8">
-        <v>0.1576243489920373</v>
+        <v>0.1310950688486869</v>
       </c>
       <c r="F8">
-        <v>1.569035736272298</v>
+        <v>1.896459714006781</v>
       </c>
       <c r="G8">
-        <v>0.002417126089359947</v>
+        <v>0.000752200994292896</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1894639112100833</v>
+        <v>0.2179599782116668</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.943904251618477</v>
+        <v>4.132480705843335</v>
       </c>
       <c r="O8">
-        <v>3.92465161631327</v>
+        <v>5.28355129880822</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1635584291339143</v>
+        <v>0.3413255086066727</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1749940350993739</v>
+        <v>0.09746310263005142</v>
       </c>
       <c r="E9">
-        <v>0.1639891454149733</v>
+        <v>0.1675353365914418</v>
       </c>
       <c r="F9">
-        <v>1.696215314610981</v>
+        <v>2.510836012672996</v>
       </c>
       <c r="G9">
-        <v>0.002406401938415241</v>
+        <v>0.0007353123837509915</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2034575054670285</v>
+        <v>0.2878080285791071</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.316504389646809</v>
+        <v>5.25911396555432</v>
       </c>
       <c r="O9">
-        <v>4.301396925444635</v>
+        <v>7.049484321021396</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1817500012197257</v>
+        <v>0.4035430215420064</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1760534290396052</v>
+        <v>0.1081394645472429</v>
       </c>
       <c r="E10">
-        <v>0.169088474725001</v>
+        <v>0.1959945670818684</v>
       </c>
       <c r="F10">
-        <v>1.794459758914059</v>
+        <v>2.988080076194848</v>
       </c>
       <c r="G10">
-        <v>0.002399246738317698</v>
+        <v>0.0007233668241480934</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2143235631693869</v>
+        <v>0.3421956624826805</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.591327722520418</v>
+        <v>6.087573303855663</v>
       </c>
       <c r="O10">
-        <v>4.590573542432821</v>
+        <v>8.420189421727173</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1900877858899008</v>
+        <v>0.4320172635534192</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1766042903173286</v>
+        <v>0.1132014926893561</v>
       </c>
       <c r="E11">
-        <v>0.1715010782485393</v>
+        <v>0.2094156318129379</v>
       </c>
       <c r="F11">
-        <v>1.840215008519493</v>
+        <v>3.212631996128295</v>
       </c>
       <c r="G11">
-        <v>0.002396147058881212</v>
+        <v>0.0007180085468848817</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2193960977187146</v>
+        <v>0.3678194638589787</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.716530669508643</v>
+        <v>6.464636319050953</v>
       </c>
       <c r="O11">
-        <v>4.724870106639514</v>
+        <v>9.064965924582339</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1932538308938092</v>
+        <v>0.4428269586280749</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1768227941903859</v>
+        <v>0.1151514393178061</v>
       </c>
       <c r="E12">
-        <v>0.1724280870050521</v>
+        <v>0.2145764037657827</v>
       </c>
       <c r="F12">
-        <v>1.857695457956879</v>
+        <v>3.298910046315086</v>
       </c>
       <c r="G12">
-        <v>0.00239499548138893</v>
+        <v>0.0007159881034908278</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.221335716487971</v>
+        <v>0.3776699852107726</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.763963193734583</v>
+        <v>6.607448666631683</v>
       </c>
       <c r="O12">
-        <v>4.776123705914472</v>
+        <v>9.312686875616009</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1925715833279469</v>
+        <v>0.4404976502398483</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1767752950894987</v>
+        <v>0.1147299517845184</v>
       </c>
       <c r="E13">
-        <v>0.1722278419399359</v>
+        <v>0.2134612708958343</v>
       </c>
       <c r="F13">
-        <v>1.853923867927108</v>
+        <v>3.280270141153892</v>
       </c>
       <c r="G13">
-        <v>0.002395242508514029</v>
+        <v>0.0007164228981293415</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2209171483289651</v>
+        <v>0.3755415923831293</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.753746911385861</v>
+        <v>6.576690288354087</v>
       </c>
       <c r="O13">
-        <v>4.765067556405256</v>
+        <v>9.259168750958963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.190348085298524</v>
+        <v>0.4329060254517003</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1766220683052069</v>
+        <v>0.1133612314575743</v>
       </c>
       <c r="E14">
-        <v>0.1715770748056329</v>
+        <v>0.2098385750749756</v>
       </c>
       <c r="F14">
-        <v>1.841650044738657</v>
+        <v>3.219704114662619</v>
       </c>
       <c r="G14">
-        <v>0.00239605187356056</v>
+        <v>0.0007178421651131303</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2195552945535866</v>
+        <v>0.3686267927804607</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.720432585385993</v>
+        <v>6.476385042944173</v>
       </c>
       <c r="O14">
-        <v>4.729078768254283</v>
+        <v>9.085271643591739</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1889872547792919</v>
+        <v>0.4282595438104693</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1765295021117765</v>
+        <v>0.1125272693568533</v>
       </c>
       <c r="E15">
-        <v>0.1711802087939134</v>
+        <v>0.207630118487522</v>
       </c>
       <c r="F15">
-        <v>1.834152050347342</v>
+        <v>3.182773359589191</v>
       </c>
       <c r="G15">
-        <v>0.002396550521006046</v>
+        <v>0.0007187125570935986</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2187235669912297</v>
+        <v>0.364411117899536</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.700029152110062</v>
+        <v>6.414948655393118</v>
       </c>
       <c r="O15">
-        <v>4.707086574762002</v>
+        <v>8.979234096696359</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1812063398625838</v>
+        <v>0.4016858187135171</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1760188154244986</v>
+        <v>0.107813073861557</v>
       </c>
       <c r="E16">
-        <v>0.1689326789279946</v>
+        <v>0.1951278692833114</v>
       </c>
       <c r="F16">
-        <v>1.791491030024417</v>
+        <v>2.97356936333253</v>
       </c>
       <c r="G16">
-        <v>0.00239945242344497</v>
+        <v>0.0007237183369611276</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2139946788174569</v>
+        <v>0.3405405347663475</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.583148644061055</v>
+        <v>6.062935127839467</v>
       </c>
       <c r="O16">
-        <v>4.581852524519547</v>
+        <v>8.378520743813056</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1764487851811651</v>
+        <v>0.3854292867136735</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1757231760749818</v>
+        <v>0.104976043754931</v>
       </c>
       <c r="E17">
-        <v>0.167577719709449</v>
+        <v>0.1875866459848439</v>
       </c>
       <c r="F17">
-        <v>1.765592947740373</v>
+        <v>2.847254704356175</v>
       </c>
       <c r="G17">
-        <v>0.002401272324867566</v>
+        <v>0.0007268071006840783</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2111269263642015</v>
+        <v>0.3261365002021819</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.511489453097226</v>
+        <v>5.847034662043143</v>
       </c>
       <c r="O17">
-        <v>4.505731717013816</v>
+        <v>8.015780684864751</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1737182494248515</v>
+        <v>0.3760949153852948</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1755596213569888</v>
+        <v>0.1033633474489903</v>
       </c>
       <c r="E18">
-        <v>0.1668071234688995</v>
+        <v>0.1832931440395313</v>
       </c>
       <c r="F18">
-        <v>1.750797082196556</v>
+        <v>2.77529158949261</v>
       </c>
       <c r="G18">
-        <v>0.002402333704617743</v>
+        <v>0.0007285909642391866</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2094896528478927</v>
+        <v>0.317933389332083</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.470290675909951</v>
+        <v>5.722872568807475</v>
       </c>
       <c r="O18">
-        <v>4.462207568522672</v>
+        <v>7.809107281374224</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1727947553757332</v>
+        <v>0.3729371237455581</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1755053593357232</v>
+        <v>0.102820493259479</v>
       </c>
       <c r="E19">
-        <v>0.166547712491564</v>
+        <v>0.1818467053693524</v>
       </c>
       <c r="F19">
-        <v>1.745804605181775</v>
+        <v>2.751039638791383</v>
       </c>
       <c r="G19">
-        <v>0.00240269558458022</v>
+        <v>0.0007291962665544157</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2089373882823509</v>
+        <v>0.3151694092984201</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.456344689235948</v>
+        <v>5.680836575609362</v>
       </c>
       <c r="O19">
-        <v>4.447515346699447</v>
+        <v>7.739454382194197</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1769546279153928</v>
+        <v>0.3871581531682722</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1757539758419355</v>
+        <v>0.1052760505135453</v>
       </c>
       <c r="E20">
-        <v>0.167721052465474</v>
+        <v>0.188384797088851</v>
       </c>
       <c r="F20">
-        <v>1.768339483154278</v>
+        <v>2.860628542161294</v>
       </c>
       <c r="G20">
-        <v>0.002401077080864969</v>
+        <v>0.0007264775579663985</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2114309417489437</v>
+        <v>0.3276612379046497</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.519115905986666</v>
+        <v>5.870015766701897</v>
       </c>
       <c r="O20">
-        <v>4.513808127811615</v>
+        <v>8.054188154448923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1910009463247917</v>
+        <v>0.435135113196182</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1766668059812773</v>
+        <v>0.1137623300267521</v>
       </c>
       <c r="E21">
-        <v>0.1717678565883389</v>
+        <v>0.2109004301091844</v>
       </c>
       <c r="F21">
-        <v>1.845250978317722</v>
+        <v>3.237458537288376</v>
       </c>
       <c r="G21">
-        <v>0.002395813541770542</v>
+        <v>0.0007174250776484651</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2199547937791095</v>
+        <v>0.3706536622629955</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.730217288371648</v>
+        <v>6.505846402053805</v>
       </c>
       <c r="O21">
-        <v>4.739638709769963</v>
+        <v>9.136248527455791</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.200231658042739</v>
+        <v>0.4666501368062939</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1773211216162025</v>
+        <v>0.1195033031278285</v>
       </c>
       <c r="E22">
-        <v>0.1744908541518555</v>
+        <v>0.226079004786115</v>
       </c>
       <c r="F22">
-        <v>1.896414790630246</v>
+        <v>3.491093662348447</v>
       </c>
       <c r="G22">
-        <v>0.002392502880666877</v>
+        <v>0.0007115577295728945</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.225635036445496</v>
+        <v>0.3996219918740707</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.868303394937072</v>
+        <v>6.921554627154023</v>
       </c>
       <c r="O22">
-        <v>4.889555756343043</v>
+        <v>9.864460275483566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1953005061487687</v>
+        <v>0.4498145419793502</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1769666215723475</v>
+        <v>0.1164201378040772</v>
       </c>
       <c r="E23">
-        <v>0.1730303690042234</v>
+        <v>0.2179317954575097</v>
       </c>
       <c r="F23">
-        <v>1.869025219674057</v>
+        <v>3.354987425575189</v>
       </c>
       <c r="G23">
-        <v>0.002394258045721026</v>
+        <v>0.0007146855933130927</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2225933271110279</v>
+        <v>0.3840739580264625</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.794595190493112</v>
+        <v>6.699669140477795</v>
       </c>
       <c r="O23">
-        <v>4.809328534290898</v>
+        <v>9.473692027688514</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1767259219249979</v>
+        <v>0.3863764963094809</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1757400312936568</v>
+        <v>0.1051403605640147</v>
       </c>
       <c r="E24">
-        <v>0.1676562256042899</v>
+        <v>0.1880238227616005</v>
       </c>
       <c r="F24">
-        <v>1.76709748398801</v>
+        <v>2.85458019693661</v>
       </c>
       <c r="G24">
-        <v>0.002401165303691459</v>
+        <v>0.0007266265188539123</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2112934607855692</v>
+        <v>0.3269716626695356</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.515667989176677</v>
+        <v>5.859626127686568</v>
       </c>
       <c r="O24">
-        <v>4.510156039135268</v>
+        <v>8.036818347951566</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1569161479388868</v>
+        <v>0.3185489263901786</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1746650798694702</v>
+        <v>0.09369203427059603</v>
       </c>
       <c r="E25">
-        <v>0.1621932848350376</v>
+        <v>0.1574144629667309</v>
       </c>
       <c r="F25">
-        <v>1.660971659900625</v>
+        <v>2.340651936903285</v>
       </c>
       <c r="G25">
-        <v>0.002409175396314761</v>
+        <v>0.000739792430970059</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1995698711105831</v>
+        <v>0.2684393150567246</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.215498394811902</v>
+        <v>4.954204993366886</v>
       </c>
       <c r="O25">
-        <v>4.197320322167002</v>
+        <v>6.560516147654027</v>
       </c>
     </row>
   </sheetData>
